--- a/Holiday Recommendations/cities.xlsx
+++ b/Holiday Recommendations/cities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ioana\Documents\UiPath\Holiday Recommendations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ioana\Desktop\RPA-UiPath\Holiday-Recommendations\Holiday Recommendations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,7 +92,7 @@
     <t>Abu Dhabi</t>
   </si>
   <si>
-    <t>Bucharest</t>
+    <t>Palma de Mallorca</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1456</v>
+        <v>3000</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Holiday Recommendations/cities.xlsx
+++ b/Holiday Recommendations/cities.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ioana\Desktop\RPA-UiPath\Holiday-Recommendations\Holiday Recommendations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_AE42061CC76313C23D51D9A277209EA10DF2875B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E41796FF-4F33-41F5-B5BE-90DFDF6988AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>City</t>
   </si>
@@ -41,9 +51,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Restaurant price</t>
-  </si>
-  <si>
     <t>Min hotel stars</t>
   </si>
   <si>
@@ -62,18 +69,12 @@
     <t>Rooms</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>10/03/2022</t>
   </si>
   <si>
     <t>Max hotel price per night</t>
   </si>
   <si>
-    <t>Vienna</t>
-  </si>
-  <si>
     <t>05/08/2022</t>
   </si>
   <si>
@@ -89,16 +90,37 @@
     <t>15/03/2022</t>
   </si>
   <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
     <t>Palma de Mallorca</t>
+  </si>
+  <si>
+    <t>Restaurant prices</t>
+  </si>
+  <si>
+    <t>medium, high</t>
+  </si>
+  <si>
+    <t>high, medium</t>
+  </si>
+  <si>
+    <t>Meals</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>brunch, dinner</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,27 +432,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6796875" customWidth="1"/>
+    <col min="3" max="3" width="13.5859375" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" customWidth="1"/>
+    <col min="5" max="5" width="26.23046875" customWidth="1"/>
+    <col min="6" max="6" width="17.890625" customWidth="1"/>
+    <col min="7" max="7" width="15.6015625" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6796875" customWidth="1"/>
+    <col min="13" max="13" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,38 +467,38 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
@@ -490,27 +513,30 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3">
@@ -522,24 +548,33 @@
       <c r="G3">
         <v>4</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
         <v>2</v>
       </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="E4">
@@ -551,17 +586,23 @@
       <c r="G4">
         <v>3</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
